--- a/code guide.xlsx
+++ b/code guide.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Problem</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>tuple</t>
+  </si>
+  <si>
+    <t>nearestExit</t>
+  </si>
+  <si>
+    <t>Nearest Exit from Entrance in Maze</t>
+  </si>
+  <si>
+    <t>Status (0= unfinished, 1=finished)</t>
   </si>
 </sst>
 </file>
@@ -365,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -377,7 +386,7 @@
     <col min="2" max="2" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,8 +396,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -396,7 +408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -405,6 +417,17 @@
       </c>
       <c r="C3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/code guide.xlsx
+++ b/code guide.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Problem</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Status (0= unfinished, 1=finished)</t>
+  </si>
+  <si>
+    <t>Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>MedianFinder</t>
   </si>
 </sst>
 </file>
@@ -374,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,6 +436,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/code guide.xlsx
+++ b/code guide.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Problem</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>MedianFinder</t>
+  </si>
+  <si>
+    <t>isIsomorphic</t>
+  </si>
+  <si>
+    <t>dict</t>
+  </si>
+  <si>
+    <t>Isomorphic Strings</t>
   </si>
 </sst>
 </file>
@@ -380,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,6 +453,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
